--- a/readme/manual-test.xlsx
+++ b/readme/manual-test.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t>Test Case</t>
   </si>
@@ -4976,6 +4976,165 @@
         <rFont val="Arial"/>
       </rPr>
       <t>5. Ensure your messages are aligned to the right and another user messages are aligned to the left.</t>
+    </r>
+  </si>
+  <si>
+    <t>TC026</t>
+  </si>
+  <si>
+    <t>Test Social Auth Google</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open website in browser: </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://helpukr.herokuapp.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">2. Click on Register in the navbar.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">3. Signup with Google.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">4. Log out.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">5. Click Login 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>6. Sign in with Google account.</t>
+    </r>
+  </si>
+  <si>
+    <t>It allows to sign up and sign in</t>
+  </si>
+  <si>
+    <t>TC027</t>
+  </si>
+  <si>
+    <t>Test Social Auth Facebook</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">1. Open website in browser: </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>https://helpukr.herokuapp.com/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">2. Click on Register in the navbar.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">3. Signup with Facebook.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">4. Log out.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve">5. Click Login 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>6. Sign in with Facebook account.</t>
     </r>
   </si>
   <si>
@@ -5308,7 +5467,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5977018" y="135407761"/>
+          <a:off x="5977018" y="136804761"/>
           <a:ext cx="4124164" cy="155878"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5396,7 +5555,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5003000" y="128113639"/>
+          <a:off x="5003000" y="129510639"/>
           <a:ext cx="6072200" cy="155878"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -8144,27 +8303,51 @@
       </c>
       <c r="G76" s="15"/>
     </row>
-    <row r="77" ht="13.65" customHeight="1">
-      <c r="A77" s="15"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
+    <row r="77" ht="68.65" customHeight="1">
+      <c r="A77" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="C77" t="s" s="3">
+        <v>225</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="F77" t="s" s="16">
+        <v>11</v>
+      </c>
       <c r="G77" s="15"/>
     </row>
-    <row r="78" ht="13.65" customHeight="1">
-      <c r="A78" s="15"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
+    <row r="78" ht="68.65" customHeight="1">
+      <c r="A78" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C78" t="s" s="3">
+        <v>229</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="F78" t="s" s="16">
+        <v>11</v>
+      </c>
       <c r="G78" s="15"/>
     </row>
     <row r="79" ht="13.65" customHeight="1">
       <c r="A79" t="s" s="5">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="B79" s="15"/>
       <c r="C79" s="20"/>
@@ -8175,7 +8358,7 @@
     </row>
     <row r="80" ht="13.65" customHeight="1">
       <c r="A80" t="s" s="2">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B80" s="15"/>
       <c r="C80" s="20"/>
@@ -16946,12 +17129,14 @@
     <hyperlink ref="C74" r:id="rId73" location="" tooltip="" display="https://helpukr.herokuapp.com/"/>
     <hyperlink ref="C75" r:id="rId74" location="" tooltip="" display="https://helpukr.herokuapp.com/"/>
     <hyperlink ref="C76" r:id="rId75" location="" tooltip="" display="https://helpukr.herokuapp.com/"/>
+    <hyperlink ref="C77" r:id="rId76" location="" tooltip="" display="https://helpukr.herokuapp.com/"/>
+    <hyperlink ref="C78" r:id="rId77" location="" tooltip="" display="https://helpukr.herokuapp.com/"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId76"/>
+  <drawing r:id="rId78"/>
 </worksheet>
 </file>